--- a/docs/CareConnect-Medication-1.xlsx
+++ b/docs/CareConnect-Medication-1.xlsx
@@ -156,13 +156,7 @@
 dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}</t>
   </si>
   <si>
-    <t>NewRx/MedicationPrescribed--or--RxFill/MedicationDispensed--or--RxHistoryResponse/MedicationDispensed--or--RxHistoryResponse/MedicationPrescribed</t>
+    <t>NewRx/MedicationPrescribed -or- RxFill/MedicationDispensed -or- RxHistoryResponse/MedicationDispensed -or- RxHistoryResponse/MedicationPrescribed</t>
   </si>
   <si>
     <t>ManufacturedProduct[classCode=ADMM]</t>
@@ -225,8 +219,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element.   This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -373,14 +366,10 @@
     <t>A code from the SNOMED Clinical Terminology UK coding system that describes a medication from the VTM/VMP/VMPP/AMP/AMPP subsets from the dm+d terminology</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-MedicationCode-1</t>
-  </si>
-  <si>
-    <t>coding.code = //element(*,MedicationType)/DrugCoded/ProductCode--coding.system = //element(*,MedicationType)/DrugCoded/ProductCodeQualifier--coding.display = //element(*,MedicationType)/DrugDescription</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-MedicationCode-1</t>
+  </si>
+  <si>
+    <t>coding.code = //element(*,MedicationType)/DrugCoded/ProductCode  coding.system = //element(*,MedicationType)/DrugCoded/ProductCodeQualifier  coding.display = //element(*,MedicationType)/DrugDescription</t>
   </si>
   <si>
     <t>.code</t>
@@ -473,7 +462,7 @@
     <t>snomedCTDescriptionID</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-coding-sctdescid}
 </t>
   </si>
   <si>
@@ -673,7 +662,7 @@
     <t>Medication.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1)
 </t>
   </si>
   <si>
@@ -707,12 +696,10 @@
     <t>A code from the SNOMED Clinical Terminology UK coding system that describes a medication dose form</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-MedicationForm-1</t>
-  </si>
-  <si>
-    <t>coding.code =  //element(*,DrugCodedType)/FormCode--coding.system = //element(*,DrugCodedType)/FormSourceCode</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-MedicationForm-1</t>
+  </si>
+  <si>
+    <t>coding.code =  //element(*,DrugCodedType)/FormCode  coding.system = //element(*,DrugCodedType)/FormSourceCode</t>
   </si>
   <si>
     <t>.formCode</t>
@@ -803,7 +790,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Substance|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Medication-1)</t>
+Reference(Substance|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Medication-1)</t>
   </si>
   <si>
     <t>The product contained</t>
@@ -827,8 +814,7 @@
     <t>Indication of whether this ingredient affects the therapeutic action of the drug.</t>
   </si>
   <si>
-    <t>True indicates that the ingredient affects the therapeutic action of the drug (i.e. active). -False indicates that the ingredient does not affect the therapeutic action of the drug (i.e. inactive).</t>
+    <t>True indicates that the ingredient affects the therapeutic action of the drug (i.e. active).  False indicates that the ingredient does not affect the therapeutic action of the drug (i.e. inactive).</t>
   </si>
   <si>
     <t>Medication.ingredient.amount</t>
@@ -917,7 +903,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Medication-1)</t>
+Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Medication-1)</t>
   </si>
   <si>
     <t>The item in the package</t>
@@ -1192,7 +1178,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="152.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.51953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.35546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
